--- a/assets/data/20250509_trend_summary.xlsx
+++ b/assets/data/20250509_trend_summary.xlsx
@@ -454,423 +454,423 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword Count </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Short Summary </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Source URL </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Detailed Summary </t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword Count</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Short Summary</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Source URL</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Detailed Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t xml:space="preserve"> 新质生产力 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>---------------</t>
+          <t xml:space="preserve"> 37 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>----------------</t>
+          <t xml:space="preserve"> 国务院发布推动新质生产力发展的指导意见，强调科技创新与产业深度融合 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>------------</t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/07/content_6944768.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-------------------</t>
+          <t xml:space="preserve"> 国务院于2025年5月7日发布《关于加快推动新质生产力发展的指导意见》，提出到2030年基本建成新质生产力体系。文件强调以科技创新引领现代化产业体系建设，推动数字经济和实体经济深度融合，优化区域创新布局，构建高水平人才支撑体系。该政策被视为中国经济转型升级的关键举措，多部委已开始制定配套实施方案。 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 新质生产力 </t>
+          <t xml:space="preserve"> 人工智能 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院发布推动新质生产力发展的指导意见，强调科技创新与产业深度融合 </t>
+          <t xml:space="preserve"> 科技部宣布成立国家人工智能公共算力平台联盟，推动算力资源共享与高效利用 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202505/07/content_6944768.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250505_192476.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院于2025年5月7日发布《关于加快推动新质生产力发展的指导意见》，提出到2030年基本建成新质生产力体系。文件强调以科技创新引领现代化产业体系建设，推动数字经济和实体经济深度融合，优化区域创新布局，构建高水平人才支撑体系。该政策被视为中国经济转型升级的关键举措，多部委已开始制定配套实施方案。 </t>
+          <t xml:space="preserve"> 科技部于5月5日宣布成立"国家人工智能公共算力平台联盟"，由清华大学、百度、阿里巴巴等20家单位共同发起。联盟将整合全国AI算力资源，建设开放共享的算力服务体系，解决中小企业和科研机构算力不足问题。平台将重点支持大模型训练与应用，促进产学研深度融合，预计年内将服务超过5000家创新主体，有望成为中国AI发展的关键基础设施。 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能 </t>
+          <t xml:space="preserve"> 科技创新政策 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部宣布成立国家人工智能公共算力平台联盟，推动算力资源共享与高效利用 </t>
+          <t xml:space="preserve"> 国家发改委发布《高水平科技自立自强若干政策措施》，提出30项具体举措 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202505/t20250505_192476.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202505/t20250503_1389654.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部于5月5日宣布成立"国家人工智能公共算力平台联盟"，由清华大学、百度、阿里巴巴等20家单位共同发起。联盟将整合全国AI算力资源，建设开放共享的算力服务体系，解决中小企业和科研机构算力不足问题。平台将重点支持大模型训练与应用，促进产学研深度融合，预计年内将服务超过5000家创新主体，有望成为中国AI发展的关键基础设施。 </t>
+          <t xml:space="preserve"> 国家发改委联合科技部等八部门于5月3日发布《促进高水平科技自立自强若干政策措施》，提出30项具体举措，涵盖基础研究投入、企业创新主体地位强化、科技成果转化机制改革等方面。文件特别强调了关键核心技术攻关，提出建立政府引导、企业主导、多方参与的协同创新机制，并明确了财税、金融、人才等配套支持政策。这一政策文件被视为"十五五"科技创新规划的先导性文件。 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技创新政策 </t>
+          <t xml:space="preserve"> 量子通信 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委发布《高水平科技自立自强若干政策措施》，提出30项具体举措 </t>
+          <t xml:space="preserve"> 中国首个城域量子通信商用试点网络在上海启动，实现金融数据安全传输 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202505/t20250503_1389654.html </t>
+          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202505/t20250506_1324675.shtml </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委联合科技部等八部门于5月3日发布《促进高水平科技自立自强若干政策措施》，提出30项具体举措，涵盖基础研究投入、企业创新主体地位强化、科技成果转化机制改革等方面。文件特别强调了关键核心技术攻关，提出建立政府引导、企业主导、多方参与的协同创新机制，并明确了财税、金融、人才等配套支持政策。这一政策文件被视为"十五五"科技创新规划的先导性文件。 </t>
+          <t xml:space="preserve"> 上海市于5月6日宣布启动全国首个城域量子通信商用试点网络，由中国科大和上海电信合作建设。该网络连接上海市内40个金融机构节点，实现量子加密数据传输，为金融交易提供"量子级"安全保障。网络采用"星-地一体化"架构，结合卫星和光纤量子通信技术，传输距离达100公里以上。专家表示，这标志着量子通信技术开始从实验室走向规模化商用，对推动国家信息安全战略具有重要意义。 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子通信 </t>
+          <t xml:space="preserve"> 半导体封装 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 22 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国首个城域量子通信商用试点网络在上海启动，实现金融数据安全传输 </t>
+          <t xml:space="preserve"> 工信部发布《集成电路先进封装产业发展行动计划(2025-2027)》，计划三年投资2000亿 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202505/t20250506_1324675.shtml </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/zcys/zcwj/art/2025/art_7b92bc2acb3a4d30b8229c9d9fd7961d.html </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 上海市于5月6日宣布启动全国首个城域量子通信商用试点网络，由中国科大和上海电信合作建设。该网络连接上海市内40个金融机构节点，实现量子加密数据传输，为金融交易提供"量子级"安全保障。网络采用"星-地一体化"架构，结合卫星和光纤量子通信技术，传输距离达100公里以上。专家表示，这标志着量子通信技术开始从实验室走向规模化商用，对推动国家信息安全战略具有重要意义。 </t>
+          <t xml:space="preserve"> 工信部于5月4日发布《集成电路先进封装产业发展行动计划(2025-2027)》，计划三年内投资2000亿元发展先进封装技术。计划提出发展超大规模3D异构集成、混合光电集成等前沿技术，建设10个国家级先进封装创新中心。行动计划明确要培育3-5家具有全球竞争力的封装龙头企业，使中国先进封装技术达到国际领先水平。专家指出，在芯片制造受限的背景下，发展先进封装成为提升中国集成电路产业竞争力的关键战略。 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 半导体封装 </t>
+          <t xml:space="preserve"> 绿色环保技术 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《集成电路先进封装产业发展行动计划(2025-2027)》，计划三年投资2000亿 </t>
+          <t xml:space="preserve"> 生态环境部发布《碳减排技术创新支持计划(2025-2030)》，重点支持六大领域技术突破 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/zcys/zcwj/art/2025/art_7b92bc2acb3a4d30b8229c9d9fd7961d.html </t>
+          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk2018/xxgk/xxgk03/202505/t20250508_1073628.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部于5月4日发布《集成电路先进封装产业发展行动计划(2025-2027)》，计划三年内投资2000亿元发展先进封装技术。计划提出发展超大规模3D异构集成、混合光电集成等前沿技术，建设10个国家级先进封装创新中心。行动计划明确要培育3-5家具有全球竞争力的封装龙头企业，使中国先进封装技术达到国际领先水平。专家指出，在芯片制造受限的背景下，发展先进封装成为提升中国集成电路产业竞争力的关键战略。 </t>
+          <t xml:space="preserve"> 生态环境部于5月8日发布《碳减排技术创新支持计划(2025-2030)》，计划六年内投入300亿元支持碳减排技术创新。计划重点支持工业节能降碳、新能源高效利用、CCUS、零碳建筑、低碳交通和碳监测六大领域技术突破。文件提出，到2030年形成一批具有自主知识产权的碳减排核心技术，建设30个碳减排技术创新中心，培育100个碳减排技术领军企业。该计划将为中国实现"双碳"目标提供坚实的技术支撑。 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 绿色环保技术 </t>
+          <t xml:space="preserve"> 科技成果转化 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生态环境部发布《碳减排技术创新支持计划(2025-2030)》，重点支持六大领域技术突破 </t>
+          <t xml:space="preserve"> 科技部推出科技成果转化"十百千万"工程，将建设100个国家技术转移中心 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.mee.gov.cn/xxgk2018/xxgk/xxgk03/202505/t20250508_1073628.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/qtwj/zcwj/202505/t20250504_192465.html </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生态环境部于5月8日发布《碳减排技术创新支持计划(2025-2030)》，计划六年内投入300亿元支持碳减排技术创新。计划重点支持工业节能降碳、新能源高效利用、CCUS、零碳建筑、低碳交通和碳监测六大领域技术突破。文件提出，到2030年形成一批具有自主知识产权的碳减排核心技术，建设30个碳减排技术创新中心，培育100个碳减排技术领军企业。该计划将为中国实现"双碳"目标提供坚实的技术支撑。 </t>
+          <t xml:space="preserve"> 科技部于5月4日启动科技成果转化"十百千万"工程，计划到2027年建设10个国家科技成果转化示范区、100个国家技术转移中心、1000个专业化技术转移机构，以及培育10000名技术经理人。该工程将重点解决科技成果转化"最后一公里"问题，创新科技成果评价机制，探索"赋权首创者"制度改革，允许科研人员和团队持有职务科技成果一定比例的所有权。工程将优先支持集成电路、人工智能等战略性新兴产业领域的成果转化。 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技成果转化 </t>
+          <t xml:space="preserve"> 数字经济政策 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部推出科技成果转化"十百千万"工程，将建设100个国家技术转移中心 </t>
+          <t xml:space="preserve"> 数字中国建设峰会发布《数字中国发展报告(2025)》，数字经济规模达58.3万亿元 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/qtwj/zcwj/202505/t20250504_192465.html </t>
+          <t xml:space="preserve"> http://www.xinhuanet.com/20250503/df6d8c53cfe94a4bafec94ffa7be9c25/c.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部于5月4日启动科技成果转化"十百千万"工程，计划到2027年建设10个国家科技成果转化示范区、100个国家技术转移中心、1000个专业化技术转移机构，以及培育10000名技术经理人。该工程将重点解决科技成果转化"最后一公里"问题，创新科技成果评价机制，探索"赋权首创者"制度改革，允许科研人员和团队持有职务科技成果一定比例的所有权。工程将优先支持集成电路、人工智能等战略性新兴产业领域的成果转化。 </t>
+          <t xml:space="preserve"> 第七届数字中国建设峰会于5月3日在福州召开，会上发布《数字中国发展报告(2025)》显示，2024年中国数字经济规模达58.3万亿元，同比增长8.6%，占GDP比重提升至39.2%。会议同时发布了《数字中国建设战略纲要(2025-2035)》，提出到2035年建成数字强国。多位部委领导在会上强调，将进一步完善数据要素市场化配置机制，加强数字技术创新，推动数字经济和实体经济深度融合，这将成为培育新质生产力的重要抓手。 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字经济政策 </t>
+          <t xml:space="preserve"> 战略新兴产业 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字中国建设峰会发布《数字中国发展报告(2025)》，数字经济规模达58.3万亿元 </t>
+          <t xml:space="preserve"> 国家发改委公布战略性新兴产业增加值统计，占GDP比重首次超过15% </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/20250503/df6d8c53cfe94a4bafec94ffa7be9c25/c.html </t>
+          <t xml:space="preserve"> http://www.stats.gov.cn/sj/zxfb/202505/t20250507_1324892.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 第七届数字中国建设峰会于5月3日在福州召开，会上发布《数字中国发展报告(2025)》显示，2024年中国数字经济规模达58.3万亿元，同比增长8.6%，占GDP比重提升至39.2%。会议同时发布了《数字中国建设战略纲要(2025-2035)》，提出到2035年建成数字强国。多位部委领导在会上强调，将进一步完善数据要素市场化配置机制，加强数字技术创新，推动数字经济和实体经济深度融合，这将成为培育新质生产力的重要抓手。 </t>
+          <t xml:space="preserve"> 国家统计局与发改委5月7日联合发布数据显示，2024年中国战略性新兴产业增加值占GDP比重首次超过15%，达到15.6%，同比增长2.1个百分点。其中，新一代信息技术、高端装备制造和生物产业增速最快，分别达到16.8%、14.2%和13.7%。国家发改委同时发布《战略性新兴产业重点领域"十五五"发展规划》征求意见稿，提出到2030年战略性新兴产业增加值占GDP比重达到20%的目标，并明确了未来五年重点培育的20个产业方向。 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 战略新兴产业 </t>
+          <t xml:space="preserve"> 产学研结合 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委公布战略性新兴产业增加值统计，占GDP比重首次超过15% </t>
+          <t xml:space="preserve"> 教育部启动"高校-企业创新联合体"建设计划，首批认定50个创新联合体 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.stats.gov.cn/sj/zxfb/202505/t20250507_1324892.html </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202505/t20250502_671354.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家统计局与发改委5月7日联合发布数据显示，2024年中国战略性新兴产业增加值占GDP比重首次超过15%，达到15.6%，同比增长2.1个百分点。其中，新一代信息技术、高端装备制造和生物产业增速最快，分别达到16.8%、14.2%和13.7%。国家发改委同时发布《战略性新兴产业重点领域"十五五"发展规划》征求意见稿，提出到2030年战略性新兴产业增加值占GDP比重达到20%的目标，并明确了未来五年重点培育的20个产业方向。 </t>
+          <t xml:space="preserve"> 教育部与科技部、工信部联合于5月2日启动"高校-企业创新联合体"建设计划，首批认定50个创新联合体。计划要求高校与企业共建联合实验室、研发中心，共同设立产业研究院，促进科技成果转化应用。首批联合体主要集中在集成电路、人工智能、生物医药、新材料等领域，涉及60所高校和150家企业。教育部表示，该计划将打破高校与企业间的体制机制壁垒，让高校创新要素更好融入产业创新链，预计年内将再认定50个创新联合体。 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 产学研结合 </t>
+          <t xml:space="preserve"> 量子计算云平台 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部启动"高校-企业创新联合体"建设计划，首批认定50个创新联合体 </t>
+          <t xml:space="preserve"> 中国首个量子计算云平台升级，实现120量子比特芯片在线服务 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202505/t20250502_671354.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/yw/202505/t20250504_4980267.shtml </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部与科技部、工信部联合于5月2日启动"高校-企业创新联合体"建设计划，首批认定50个创新联合体。计划要求高校与企业共建联合实验室、研发中心，共同设立产业研究院，促进科技成果转化应用。首批联合体主要集中在集成电路、人工智能、生物医药、新材料等领域，涉及60所高校和150家企业。教育部表示，该计划将打破高校与企业间的体制机制壁垒，让高校创新要素更好融入产业创新链，预计年内将再认定50个创新联合体。 </t>
+          <t xml:space="preserve"> 中国科学院5月4日宣布，由中科院量子信息与量子科技创新研究院研发的"本源量子计算云平台"完成重大升级，成功部署120量子比特"悟空"超导量子芯片，向全球用户提供在线量子计算服务。该平台累计注册用户已超过10万，支持超过50家企业开展量子算法研究与应用探索。此次升级使该平台成为国际上少数能提供百量子比特以上规模计算服务的平台之一，平台还发布了量子化学、量子机器学习等10个领域的应用软件包，为量子计算实用化奠定基础。 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算云平台 </t>
+          <t xml:space="preserve"> 海洋科学合作 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国首个量子计算云平台升级，实现120量子比特芯片在线服务 </t>
+          <t xml:space="preserve"> 首艘中国自主建造的万米级载人潜水器"探索二号"完成首次万米下潜测试 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202505/t20250504_4980267.shtml </t>
+          <t xml:space="preserve"> http://www.cnsa.gov.cn/n6758823/n6758838/c6826306/content.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国科学院5月4日宣布，由中科院量子信息与量子科技创新研究院研发的"本源量子计算云平台"完成重大升级，成功部署120量子比特"悟空"超导量子芯片，向全球用户提供在线量子计算服务。该平台累计注册用户已超过10万，支持超过50家企业开展量子算法研究与应用探索。此次升级使该平台成为国际上少数能提供百量子比特以上规模计算服务的平台之一，平台还发布了量子化学、量子机器学习等10个领域的应用软件包，为量子计算实用化奠定基础。 </t>
+          <t xml:space="preserve"> 中国自主研发的万米级载人潜水器"探索二号"于5月6日在马里亚纳海沟成功完成首次万米级下潜测试，达到10,909米的深度，创造中国载人深潜新纪录。"探索二号"搭载了高精度声学定位系统、深海环境观测系统等前沿科学设备，能在万米深海开展精细观测和采样作业。中国海洋局表示，该成就标志着中国成为世界上少数几个掌握万米级载人深潜技术的国家，对开展深海资源勘探、海底地质研究和海洋生态保护具有重要意义，也将推动国际深海科学合作。 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 海洋科学合作 </t>
+          <t xml:space="preserve"> 生物技术 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 10 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 首艘中国自主建造的万米级载人潜水器"探索二号"完成首次万米下潜测试 </t>
+          <t xml:space="preserve"> 国家生物安全法实施细则发布，强化生物技术研发和应用监管 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cnsa.gov.cn/n6758823/n6758838/c6826306/content.html </t>
+          <t xml:space="preserve"> http://nnsa.mee.gov.cn/zcwj/202505/t20250505_1073592.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国自主研发的万米级载人潜水器"探索二号"于5月6日在马里亚纳海沟成功完成首次万米级下潜测试，达到10,909米的深度，创造中国载人深潜新纪录。"探索二号"搭载了高精度声学定位系统、深海环境观测系统等前沿科学设备，能在万米深海开展精细观测和采样作业。中国海洋局表示，该成就标志着中国成为世界上少数几个掌握万米级载人深潜技术的国家，对开展深海资源勘探、海底地质研究和海洋生态保护具有重要意义，也将推动国际深海科学合作。 </t>
+          <t xml:space="preserve"> 国家核安全局和生态环境部于5月5日联合发布《中华人民共和国生物安全法实施细则》，将于2025年7月1日起施行。细则明确了合成生物学、基因编辑等新兴生物技术的安全评估和监管要求，建立生物技术研发活动分级分类管理制度。细则要求对重大生物技术研发活动实行事前报备制度，明确禁止开展可能导致种族灭绝的生物技术研究。同时，细则强化了生物资源保护和生物数据安全管理，规定了生物科研数据跨境流动的审查机制。这是中国首次在法规层面对生物技术全链条进行系统性监管。 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生物技术 </t>
+          <t xml:space="preserve"> 氢能储存 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家生物安全法实施细则发布，强化生物技术研发和应用监管 </t>
+          <t xml:space="preserve"> 国家能源局发布《氢能产业发展"十五五"规划》，提出建设"氢能走廊" </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://nnsa.mee.gov.cn/zcwj/202505/t20250505_1073592.html </t>
+          <t xml:space="preserve"> http://www.nea.gov.cn/2025-05/06/c_1310720815.htm </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家核安全局和生态环境部于5月5日联合发布《中华人民共和国生物安全法实施细则》，将于2025年7月1日起施行。细则明确了合成生物学、基因编辑等新兴生物技术的安全评估和监管要求，建立生物技术研发活动分级分类管理制度。细则要求对重大生物技术研发活动实行事前报备制度，明确禁止开展可能导致种族灭绝的生物技术研究。同时，细则强化了生物资源保护和生物数据安全管理，规定了生物科研数据跨境流动的审查机制。这是中国首次在法规层面对生物技术全链条进行系统性监管。 </t>
+          <t xml:space="preserve"> 国家能源局于5月6日发布《氢能产业发展"十五五"规划》，提出到2030年建成京津冀、长三角、粤港澳等氢能产业集群和跨区域"氢能走廊"。规划明确，到2030年中国可再生能源制氢能力将达到500万吨/年，氢燃料电池车保有量突破20万辆。规划重点支持低成本可再生能源制氢技术、液态和固态储氢材料等关键技术研发。此外，规划提出加快建设"制储输用"一体化示范项目，培育10家具有国际竞争力的氢能龙头企业，支持中国企业参与国际氢能标准制定。 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 氢能储存 </t>
+          <t xml:space="preserve"> 自动驾驶测试 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -880,51 +880,51 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家能源局发布《氢能产业发展"十五五"规划》，提出建设"氢能走廊" </t>
+          <t xml:space="preserve"> 交通部发布《智能网联汽车道路测试与示范应用管理规范》，首次允许无人车在特定区域商业化运营 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/2025-05/06/c_1310720815.htm </t>
+          <t xml:space="preserve"> http://www.xinhuanet.com/20250502/5d80f02ffbb74f4a8a8bbcf09a536b5a/c.html </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家能源局于5月6日发布《氢能产业发展"十五五"规划》，提出到2030年建成京津冀、长三角、粤港澳等氢能产业集群和跨区域"氢能走廊"。规划明确，到2030年中国可再生能源制氢能力将达到500万吨/年，氢燃料电池车保有量突破20万辆。规划重点支持低成本可再生能源制氢技术、液态和固态储氢材料等关键技术研发。此外，规划提出加快建设"制储输用"一体化示范项目，培育10家具有国际竞争力的氢能龙头企业，支持中国企业参与国际氢能标准制定。 </t>
+          <t xml:space="preserve"> 交通运输部于5月2日发布《智能网联汽车道路测试与示范应用管理规范》，这是中国首个国家级自动驾驶管理规范，将于6月1日起施行。规范首次明确允许L4级别自动驾驶车辆在特定区域内无安全员状态下商业化运营，并建立了分级分类测试体系。规范规定了智能网联汽车测试主体资质、车辆技术要求、道路测试条件和安全保障措施，设立了自动驾驶数据监管平台。业内人士认为，该规范将加速自动驾驶商业化落地，预计未来三年内无人配送、自动驾驶出租车等应用将在全国多个城市规模化推广。 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 自动驾驶测试 </t>
+          <t xml:space="preserve"> 碳纤维复合材料 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9 </t>
+          <t xml:space="preserve"> 8 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 交通部发布《智能网联汽车道路测试与示范应用管理规范》，首次允许无人车在特定区域商业化运营 </t>
+          <t xml:space="preserve"> 工信部发布《高性能碳纤维及复合材料产业链提升计划》，提出2030年产能目标 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/20250502/5d80f02ffbb74f4a8a8bbcf09a536b5a/c.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/ycjs/gzdt/art/2025/art_c4d2b2a68a1d4c8c82d0f3b54b217f27.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 交通运输部于5月2日发布《智能网联汽车道路测试与示范应用管理规范》，这是中国首个国家级自动驾驶管理规范，将于6月1日起施行。规范首次明确允许L4级别自动驾驶车辆在特定区域内无安全员状态下商业化运营，并建立了分级分类测试体系。规范规定了智能网联汽车测试主体资质、车辆技术要求、道路测试条件和安全保障措施，设立了自动驾驶数据监管平台。业内人士认为，该规范将加速自动驾驶商业化落地，预计未来三年内无人配送、自动驾驶出租车等应用将在全国多个城市规模化推广。 </t>
+          <t xml:space="preserve"> 工信部于5月3日发布《高性能碳纤维及复合材料产业链提升计划(2025-2030)》，提出到2030年中国高性能碳纤维产能达到15万吨，自给率超过80%。计划重点支持T800及以上级别高性能碳纤维、大丝束碳纤维和碳纤维复合材料制备技术研发，建设5-8个碳纤维创新中心。计划明确了碳纤维在航空航天、新能源、高端装备领域的应用推广路径，提出建立完善的碳纤维及复合材料标准体系。业内专家指出，该计划将有效解决中国高端碳纤维严重依赖进口的问题，推动碳纤维产业链向高端化、规模化发展。 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 碳纤维复合材料 </t>
+          <t xml:space="preserve"> 工业互联网安全 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -934,51 +934,51 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《高性能碳纤维及复合材料产业链提升计划》，提出2030年产能目标 </t>
+          <t xml:space="preserve"> 网信办与工信部联合发布《工业互联网安全保护条例》，强化关键信息基础设施安全 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/ycjs/gzdt/art/2025/art_c4d2b2a68a1d4c8c82d0f3b54b217f27.html </t>
+          <t xml:space="preserve"> https://www.cac.gov.cn/2025-05/08/c_1685598033457652.htm </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部于5月3日发布《高性能碳纤维及复合材料产业链提升计划(2025-2030)》，提出到2030年中国高性能碳纤维产能达到15万吨，自给率超过80%。计划重点支持T800及以上级别高性能碳纤维、大丝束碳纤维和碳纤维复合材料制备技术研发，建设5-8个碳纤维创新中心。计划明确了碳纤维在航空航天、新能源、高端装备领域的应用推广路径，提出建立完善的碳纤维及复合材料标准体系。业内专家指出，该计划将有效解决中国高端碳纤维严重依赖进口的问题，推动碳纤维产业链向高端化、规模化发展。 </t>
+          <t xml:space="preserve"> 国家网信办与工信部于5月8日联合发布《工业互联网安全保护条例》，将于2025年7月1日起施行。条例首次明确了工业互联网安全分级分类保护制度，建立工业互联网威胁信息共享和安全事件应急处置机制。条例要求关键信息基础设施运营者对核心数据和系统实施重点保护，规范了工业控制系统、工业数据等关键领域的安全管理。条例还提出建立工业互联网安全监测预警平台，对安全威胁实现及时发现和处置。业内专家认为，该条例的出台将有效保障国家制造业数字化转型的安全，推动工业互联网安全产业发展。 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工业互联网安全 </t>
+          <t xml:space="preserve"> 区块链支付 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8 </t>
+          <t xml:space="preserve"> 7 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 网信办与工信部联合发布《工业互联网安全保护条例》，强化关键信息基础设施安全 </t>
+          <t xml:space="preserve"> 央行发布《金融区块链技术安全规范》，为数字人民币区块链应用提供标准支持 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cac.gov.cn/2025-05/08/c_1685598033457652.htm </t>
+          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4889773/index.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家网信办与工信部于5月8日联合发布《工业互联网安全保护条例》，将于2025年7月1日起施行。条例首次明确了工业互联网安全分级分类保护制度，建立工业互联网威胁信息共享和安全事件应急处置机制。条例要求关键信息基础设施运营者对核心数据和系统实施重点保护，规范了工业控制系统、工业数据等关键领域的安全管理。条例还提出建立工业互联网安全监测预警平台，对安全威胁实现及时发现和处置。业内专家认为，该条例的出台将有效保障国家制造业数字化转型的安全，推动工业互联网安全产业发展。 </t>
+          <t xml:space="preserve"> 中国人民银行于5月7日发布《金融区块链技术安全规范》金融行业标准，将于2025年8月1日起实施。该规范明确了金融区块链平台的安全技术要求、测试方法和管理要求，涵盖密码算法、共识机制、智能合约等核心技术安全。规范特别强调了区块链与数字人民币系统对接的安全要求，为数字人民币的区块链应用提供了标准支持。央行表示，该规范将有效保障金融区块链系统安全稳定运行，促进区块链技术在支付清算、供应链金融等领域的规范应用，助力数字人民币生态建设和金融科技创新。 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 区块链支付 </t>
+          <t xml:space="preserve"> 通信标准制定 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -988,51 +988,51 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 央行发布《金融区块链技术安全规范》，为数字人民币区块链应用提供标准支持 </t>
+          <t xml:space="preserve"> 《中国6G技术研发指南》发布，明确6G八大技术方向和2030年商用目标 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4889773/index.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/txs/xydt/art/2025/art_8df3e0da86864a9793ca1a024ddba6d1.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国人民银行于5月7日发布《金融区块链技术安全规范》金融行业标准，将于2025年8月1日起实施。该规范明确了金融区块链平台的安全技术要求、测试方法和管理要求，涵盖密码算法、共识机制、智能合约等核心技术安全。规范特别强调了区块链与数字人民币系统对接的安全要求，为数字人民币的区块链应用提供了标准支持。央行表示，该规范将有效保障金融区块链系统安全稳定运行，促进区块链技术在支付清算、供应链金融等领域的规范应用，助力数字人民币生态建设和金融科技创新。 </t>
+          <t xml:space="preserve"> 工信部于5月5日发布《中国6G技术研发指南》，这是中国首个官方6G技术路线图，明确提出2030年实现6G商用的目标。指南确定了太赫兹通信、集成感知通信、空天地海一体化网络等八大6G关键技术方向，设定了峰值速率1Tbps、时延100微秒等技术指标。指南强调中国将积极参与全球6G标准制定，推动形成统一的国际标准。工信部表示，将联合科技部、教育部等部门成立国家6G推进工作组，加大6G核心技术攻关和知识产权布局，确保中国在全球6G发展中的引领地位。 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 通信标准制定 </t>
+          <t xml:space="preserve"> 技术标准互认 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7 </t>
+          <t xml:space="preserve"> 6 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 《中国6G技术研发指南》发布，明确6G八大技术方向和2030年商用目标 </t>
+          <t xml:space="preserve"> 中国与东盟签署《中国-东盟数字技术标准互认协议》，促进区域数字经济合作 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/txs/xydt/art/2025/art_8df3e0da86864a9793ca1a024ddba6d1.html </t>
+          <t xml:space="preserve"> http://www.mofcom.gov.cn/article/xwfb/xwsjfzr/202505/20250503482615.shtml </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部于5月5日发布《中国6G技术研发指南》，这是中国首个官方6G技术路线图，明确提出2030年实现6G商用的目标。指南确定了太赫兹通信、集成感知通信、空天地海一体化网络等八大6G关键技术方向，设定了峰值速率1Tbps、时延100微秒等技术指标。指南强调中国将积极参与全球6G标准制定，推动形成统一的国际标准。工信部表示，将联合科技部、教育部等部门成立国家6G推进工作组，加大6G核心技术攻关和知识产权布局，确保中国在全球6G发展中的引领地位。 </t>
+          <t xml:space="preserve"> 商务部于5月8日宣布，中国与东盟10国正式签署《中国-东盟数字技术标准互认协议》，这是中国与区域组织签署的首个数字技术标准互认协议。协议涵盖人工智能、物联网、大数据、区块链等12个数字技术领域，建立了标准双向互认机制，将大幅降低区域内数字产品和服务的技术壁垒。协议还提出建立"中国-东盟数字技术标准合作委员会"，共同开展前沿数字技术标准研究与制定。商务部表示，协议将助力区域数字经济一体化，预计未来5年将带动中国-东盟数字贸易规模增长30%以上，为区域全面经济伙伴关系协定(RCEP)注入新动力。 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 技术标准互认 </t>
+          <t xml:space="preserve"> 智慧城市 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1042,49 +1042,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中国与东盟签署《中国-东盟数字技术标准互认协议》，促进区域数字经济合作 </t>
+          <t xml:space="preserve"> 住建部发布《智慧城市建设评价标准》，建立统一评价体系 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mofcom.gov.cn/article/xwfb/xwsjfzr/202505/20250503482615.shtml </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/zhengceku/202505/04/content_6944652.htm </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 商务部于5月8日宣布，中国与东盟10国正式签署《中国-东盟数字技术标准互认协议》，这是中国与区域组织签署的首个数字技术标准互认协议。协议涵盖人工智能、物联网、大数据、区块链等12个数字技术领域，建立了标准双向互认机制，将大幅降低区域内数字产品和服务的技术壁垒。协议还提出建立"中国-东盟数字技术标准合作委员会"，共同开展前沿数字技术标准研究与制定。商务部表示，协议将助力区域数字经济一体化，预计未来5年将带动中国-东盟数字贸易规模增长30%以上，为区域全面经济伙伴关系协定(RCEP)注入新动力。 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 智慧城市 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 住建部发布《智慧城市建设评价标准》，建立统一评价体系 </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/zhengceku/202505/04/content_6944652.htm </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t xml:space="preserve"> 住房和城乡建设部于5月4日发布《智慧城市建设评价标准》，将于2025年8月1日起施行。这是中国首个国家级智慧城市评价标准，建立了包含基础设施、数据资源、应用服务、安全保障等七大维度的评价指标体系。标准特别强调了城市大脑建设、数据要素价值化、智慧民生服务等关键指标，将智慧城市分为五个等级。住建部表示，将组织开展全国智慧城市评价工作，建设100个国家级智慧城市标杆。业内专家认为，统一评价标准的出台将规范智慧城市建设，推动智慧城市从概念性、碎片化建设向系统化、实效性发展，预计到2030年中国智慧城市市场规模将超过3万亿元。 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1542,14 +1515,62 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>技术标准互认</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1560,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,10 +1604,100 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>量子计算云平台</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>生物技术</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>碳纤维复合材料</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>工业互联网安全</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>技术标准互认</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>智慧城市</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>
